--- a/fhir/core/StructureDefinition-dk-core-related-person.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-related-person.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-related-person.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-related-person.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-related-person.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-related-person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="342">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -499,19 +499,6 @@
   </si>
   <si>
     <t>[DA] cpr-nummer, som det fremgår af CPR registeret</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
   </si>
   <si>
     <t>RelatedPerson.identifier:x-ecpr</t>
@@ -1437,9 +1424,9 @@
     <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="139.15234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="85.921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="60.68359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="54.296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2694,7 +2681,7 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>154</v>
@@ -2703,7 +2690,7 @@
         <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2765,30 +2752,30 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>142</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
@@ -2807,16 +2794,16 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2878,30 +2865,30 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>142</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
@@ -2920,16 +2907,16 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2991,27 +2978,27 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3034,26 +3021,26 @@
         <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="P15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="P15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q15" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="R15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3097,7 +3084,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3112,10 +3099,10 @@
         <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -3123,10 +3110,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3149,17 +3136,17 @@
         <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3208,7 +3195,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>85</v>
@@ -3223,21 +3210,21 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3260,17 +3247,17 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3295,11 +3282,11 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3317,7 +3304,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3332,21 +3319,21 @@
         <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3369,17 +3356,17 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3416,7 +3403,7 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
@@ -3426,7 +3413,7 @@
         <v>148</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3441,24 +3428,24 @@
         <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>76</v>
@@ -3480,17 +3467,17 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3539,7 +3526,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3554,21 +3541,21 @@
         <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3591,13 +3578,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3648,7 +3635,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3663,7 +3650,7 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3674,10 +3661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3706,7 +3693,7 @@
         <v>132</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>134</v>
@@ -3747,10 +3734,10 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
@@ -3759,7 +3746,7 @@
         <v>148</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3774,7 +3761,7 @@
         <v>136</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3785,10 +3772,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3814,23 +3801,23 @@
         <v>105</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>76</v>
@@ -3848,13 +3835,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -3872,7 +3859,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3887,21 +3874,21 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3924,19 +3911,19 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -3985,7 +3972,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4000,25 +3987,25 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4037,16 +4024,16 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4096,7 +4083,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4111,25 +4098,25 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4148,16 +4135,16 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4207,7 +4194,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4222,21 +4209,21 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4259,13 +4246,13 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4316,7 +4303,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4331,21 +4318,21 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4368,13 +4355,13 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4425,7 +4412,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4440,21 +4427,21 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4477,17 +4464,17 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4536,7 +4523,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4551,21 +4538,21 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4588,19 +4575,19 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4649,7 +4636,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4664,21 +4651,21 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4704,14 +4691,14 @@
         <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4736,13 +4723,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4760,7 +4747,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4775,21 +4762,21 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4812,13 +4799,13 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4869,7 +4856,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4884,7 +4871,7 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4895,10 +4882,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4921,17 +4908,17 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4980,7 +4967,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4995,21 +4982,21 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5032,17 +5019,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5091,7 +5078,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5106,21 +5093,21 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5143,13 +5130,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5200,7 +5187,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5215,10 +5202,10 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5226,10 +5213,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5252,19 +5239,19 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5313,7 +5300,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5328,7 +5315,7 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5339,10 +5326,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5365,13 +5352,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5422,7 +5409,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5437,7 +5424,7 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5448,10 +5435,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5480,7 +5467,7 @@
         <v>132</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>134</v>
@@ -5533,7 +5520,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5548,7 +5535,7 @@
         <v>136</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5559,14 +5546,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5588,10 +5575,10 @@
         <v>131</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>134</v>
@@ -5646,7 +5633,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5672,10 +5659,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5698,19 +5685,19 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5759,7 +5746,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>85</v>
@@ -5774,7 +5761,7 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5785,10 +5772,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5811,19 +5798,19 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5872,7 +5859,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5887,7 +5874,7 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>

--- a/fhir/core/StructureDefinition-dk-core-related-person.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-related-person.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -355,7 +355,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1389,17 +1389,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.68359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.62109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1408,25 +1408,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.40234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.1484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.78515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.73828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="85.921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="74.1171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="46.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
